--- a/uofr/fall_2018_grading.xlsx
+++ b/uofr/fall_2018_grading.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TR_12_115" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>Class</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>Sydney</t>
+  </si>
+  <si>
+    <t>quiz_four_biome</t>
   </si>
 </sst>
 </file>
@@ -654,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +668,7 @@
     <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -690,8 +693,11 @@
       <c r="H1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -704,8 +710,11 @@
       <c r="H2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -721,8 +730,11 @@
       <c r="H3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -735,11 +747,17 @@
       <c r="D4">
         <v>9.75</v>
       </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
       <c r="H4">
         <v>9.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -752,11 +770,17 @@
       <c r="D5">
         <v>9.75</v>
       </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
       <c r="H5">
         <v>9.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -769,11 +793,17 @@
       <c r="D6">
         <v>9.5</v>
       </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
       <c r="H6">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.25</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -786,11 +816,17 @@
       <c r="D7">
         <v>9.75</v>
       </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
       <c r="H7">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -806,8 +842,11 @@
       <c r="H8">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -820,8 +859,11 @@
       <c r="D9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -834,8 +876,11 @@
       <c r="D10">
         <v>9.75</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -848,11 +893,17 @@
       <c r="D11">
         <v>10</v>
       </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
       <c r="H11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -865,11 +916,17 @@
       <c r="D12">
         <v>9.75</v>
       </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
       <c r="H12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -882,11 +939,17 @@
       <c r="D13">
         <v>9.75</v>
       </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
       <c r="H13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -899,11 +962,17 @@
       <c r="D14">
         <v>9.75</v>
       </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
       <c r="H14">
         <v>9.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -916,11 +985,17 @@
       <c r="D15">
         <v>10</v>
       </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
       <c r="H15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -936,8 +1011,11 @@
       <c r="H16">
         <v>8.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -950,11 +1028,17 @@
       <c r="D17">
         <v>9.75</v>
       </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
       <c r="H17">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -967,11 +1051,17 @@
       <c r="D18">
         <v>10</v>
       </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
       <c r="H18">
         <v>9.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -984,8 +1074,11 @@
       <c r="D19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -998,8 +1091,14 @@
       <c r="D20">
         <v>9.75</v>
       </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
       <c r="H20">
         <v>9.25</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1012,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1123,7 @@
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,8 +1148,11 @@
       <c r="H1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>94</v>
       </c>
@@ -1066,8 +1168,11 @@
       <c r="H2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>67</v>
       </c>
@@ -1083,8 +1188,11 @@
       <c r="H3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>102</v>
       </c>
@@ -1103,8 +1211,11 @@
       <c r="H4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>96</v>
       </c>
@@ -1117,8 +1228,11 @@
       <c r="H5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>84</v>
       </c>
@@ -1137,8 +1251,11 @@
       <c r="H6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>74</v>
       </c>
@@ -1154,8 +1271,11 @@
       <c r="H7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>80</v>
       </c>
@@ -1174,8 +1294,11 @@
       <c r="H8">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>98</v>
       </c>
@@ -1191,8 +1314,11 @@
       <c r="H9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>65</v>
       </c>
@@ -1211,8 +1337,11 @@
       <c r="H10">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>92</v>
       </c>
@@ -1228,8 +1357,11 @@
       <c r="G11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>78</v>
       </c>
@@ -1248,8 +1380,11 @@
       <c r="H12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>69</v>
       </c>
@@ -1265,8 +1400,11 @@
       <c r="H13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>72</v>
       </c>
@@ -1285,8 +1423,11 @@
       <c r="H14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -1302,8 +1443,11 @@
       <c r="H15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>88</v>
       </c>
@@ -1319,8 +1463,11 @@
       <c r="H16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>76</v>
       </c>
@@ -1339,8 +1486,11 @@
       <c r="H17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>82</v>
       </c>
@@ -1356,8 +1506,11 @@
       <c r="H18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>71</v>
       </c>
@@ -1376,8 +1529,11 @@
       <c r="H19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>100</v>
       </c>
@@ -1396,8 +1552,11 @@
       <c r="H20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -1415,6 +1574,9 @@
       </c>
       <c r="H21">
         <v>3</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/uofr/fall_2018_grading.xlsx
+++ b/uofr/fall_2018_grading.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TR_12_115" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
   <si>
     <t>Class</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>quiz_four_biome</t>
+  </si>
+  <si>
+    <t>exam_one</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1111,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1126,7 @@
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1151,8 +1154,11 @@
       <c r="I1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>94</v>
       </c>
@@ -1171,8 +1177,11 @@
       <c r="I2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>67</v>
       </c>
@@ -1191,8 +1200,11 @@
       <c r="I3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>102</v>
       </c>
@@ -1214,8 +1226,11 @@
       <c r="I4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>96</v>
       </c>
@@ -1231,8 +1246,11 @@
       <c r="I5">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>84</v>
       </c>
@@ -1254,8 +1272,11 @@
       <c r="I6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>74</v>
       </c>
@@ -1274,8 +1295,11 @@
       <c r="I7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>80</v>
       </c>
@@ -1297,8 +1321,11 @@
       <c r="I8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>98</v>
       </c>
@@ -1317,8 +1344,11 @@
       <c r="I9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>65</v>
       </c>
@@ -1340,8 +1370,11 @@
       <c r="I10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>92</v>
       </c>
@@ -1360,8 +1393,11 @@
       <c r="I11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>78</v>
       </c>
@@ -1383,8 +1419,11 @@
       <c r="I12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>69</v>
       </c>
@@ -1403,8 +1442,11 @@
       <c r="I13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>72</v>
       </c>
@@ -1426,8 +1468,11 @@
       <c r="I14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>86</v>
       </c>
@@ -1446,8 +1491,11 @@
       <c r="I15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>88</v>
       </c>
@@ -1466,8 +1514,11 @@
       <c r="I16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>76</v>
       </c>
@@ -1489,8 +1540,11 @@
       <c r="I17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>82</v>
       </c>
@@ -1509,8 +1563,11 @@
       <c r="I18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>71</v>
       </c>
@@ -1532,8 +1589,11 @@
       <c r="I19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>100</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="I20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>90</v>
       </c>
@@ -1577,6 +1640,9 @@
       </c>
       <c r="I21">
         <v>10</v>
+      </c>
+      <c r="J21">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
